--- a/documentacao/Defesa_Sprint_2_-_2023.xlsx
+++ b/documentacao/Defesa_Sprint_2_-_2023.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3778E3-9C8E-4722-9874-6F9FA1E56957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F49C752-F28C-42AF-9622-B6629214F193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENTREGA PRODUTO" sheetId="2" r:id="rId1"/>
@@ -2191,17 +2191,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PBI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Buscar atividade ao ar livre na plataforma 
+      <t>PBI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Linkar material externo 
 </t>
     </r>
     <r>
@@ -2223,7 +2223,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Praticante/Instrutor
+      <t xml:space="preserve"> Usuário lojista cadastrado na plataforma
 </t>
     </r>
     <r>
@@ -2245,29 +2245,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Buscar atividades ao ar livre na plataforma
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PARA:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Encontrar grupos de praticantes
+      <t xml:space="preserve"> Linkar material externo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PARA: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Expandir seu número de vendas
 </t>
     </r>
     <r>
@@ -2311,7 +2311,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Exista atividades cadastradas do interesse
+      <t xml:space="preserve"> Tenha interesse em anunciar um produto
 </t>
     </r>
     <r>
@@ -2333,7 +2333,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Busca por atividades ao ar livre
+      <t xml:space="preserve"> Linka um material externo no anúncio
 </t>
     </r>
     <r>
@@ -2355,7 +2355,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Obtêm resultados de acordo com a pesquisa
+      <t xml:space="preserve"> O produto do lojista é anunciado na plataforma
 </t>
     </r>
     <r>
@@ -2399,7 +2399,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Não exista atividaes cadastradas do interesse
+      <t xml:space="preserve"> Não tenha interesse de divulgar um produto já cadastro na plataforma
 </t>
     </r>
     <r>
@@ -2421,29 +2421,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Busca por atividades ao ar livre
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ENTÃO: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Não obtem resultados de acordo com a pesquisa</t>
+      <t xml:space="preserve"> Solicita a remoção do anúncio
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ENTÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> O anúncio é retirado da plataforma</t>
     </r>
   </si>
   <si>
@@ -2466,7 +2466,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Linkar material externo 
+      <t xml:space="preserve"> Visualização expandida da atividade ao ar livre 
 </t>
     </r>
     <r>
@@ -2488,7 +2488,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Usuário lojista cadastrado na plataforma
+      <t xml:space="preserve"> Praticante/Instrutor
 </t>
     </r>
     <r>
@@ -2510,29 +2510,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Linkar material externo
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">PARA: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Expandir seu número de vendas
+      <t xml:space="preserve"> Seleciona atividade ao ar livre desejada
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PARA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Adquirir experência da atividade ao ar livre
 </t>
     </r>
     <r>
@@ -2566,17 +2566,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>DADO QUE:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Tenha interesse em anunciar um produto
+      <t>DADO QUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Existam atividades criadas
 </t>
     </r>
     <r>
@@ -2598,29 +2598,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Linka um material externo no anúncio
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ENTÃO:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> O produto do lojista é anunciado na plataforma
+      <t xml:space="preserve"> Seleciona a atividade ao ar livre
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ENTÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Visualiza a descrição da atividade
 </t>
     </r>
     <r>
@@ -2654,17 +2654,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>DADO QUE:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Não tenha interesse de divulgar um produto já cadastro na plataforma
+      <t>DADO QUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Existam atividades criadas
 </t>
     </r>
     <r>
@@ -2686,29 +2686,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Solicita a remoção do anúncio
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ENTÃO:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> O anúncio é retirado da plataforma</t>
+      <t xml:space="preserve"> Seleciona a atividade ao ar livre
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ENTÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Visualiza o número de inscritos da atividade</t>
     </r>
   </si>
   <si>
@@ -2716,108 +2716,203 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PBI:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Visualização expandida da atividade ao ar livre 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>COMO:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Praticante/Instrutor
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>POSSO:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Seleciona atividade ao ar livre desejada
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PARA:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Adquirir experência da atividade ao ar livre
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>PBI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Realizar cadastro de Lojista na plataforma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>COMO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>: Lojista</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>POSSO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Realizar cadastro </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>PARA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Divulgar seu catálogo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CRITÉRIO DE ACEITE 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>CRITÉRIO DE ACEITE 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">:	
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>DADO QUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Não esteja cadastrado na plataforma como lojista</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2826,154 +2921,188 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>QUANDO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Realiza o cadastro de usuário lojista</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>ENTÃO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>O cadastro é realizado com sucesso</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>CRITÉRIO DE ACEITE 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>DADO QUE</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Existam atividades criadas
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>QUANDO:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Seleciona a atividade ao ar livre
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Estaja cadastrado na plataforma como lojista</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>QUANDO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Realiza cadastro de usuário lojista</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>ENTÃO</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Visualiza a descrição da atividade
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CRITÉRIO DE ACEITE 2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DADO QUE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Existam atividades criadas
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>QUANDO:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Seleciona a atividade ao ar livre
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ENTÃO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Visualiza o número de inscritos da atividade</t>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>O cadastro não é realizado na plataforma,pois a Fantasia,CNPJ ou E-mail já estão sendousados</t>
     </r>
   </si>
   <si>
@@ -2981,393 +3110,265 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>PBI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Realizar cadastro de Lojista na plataforma</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PBI:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Realizar a criação de atividades ao ar livre
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COMO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Lojista
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">POSSO: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Realizar a criação de atividades ao ar livre
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PARA: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Encontrar praticantes interessados</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>COMO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>: Lojista</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>POSSO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Realizar cadastro </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>PARA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Divulgar seu catálogo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>CRITÉRIO DE ACEITE 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">:	
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CRITÉRIO DE ACEITE 1:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DADO QUE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tenha a ideia de uma atividade ao ar livre
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">QUANDO: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cria uma atividade de baixo risco
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ENTÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cria uma atividade ao ar livre
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CRITÉRIO DE ACEITE 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>DADO QUE</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Não esteja cadastrado na plataforma como lojista</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>QUANDO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Realiza o cadastro de usuário lojista</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Tenha a ideia de uma atividade ao ar livre
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QUANDO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cria uma atividade de alto risco
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>ENTÃO</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>O cadastro é realizado com sucesso</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>CRITÉRIO DE ACEITE 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>DADO QUE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Estaja cadastrado na plataforma como lojista</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>QUANDO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Realiza cadastro de usuário lojista</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>ENTÃO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>O cadastro não é realizado na plataforma,pois a Fantasia,CNPJ ou E-mail já estão sendousados</t>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: A atividade é criada e é surgerido a contratação de um instrutor certificado na atividade</t>
     </r>
   </si>
   <si>
@@ -3390,7 +3391,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Realizar a criação de atividades ao ar livre
+      <t xml:space="preserve"> Gerenciar atividade ao ar livre criada
 </t>
     </r>
     <r>
@@ -3412,55 +3413,66 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Lojista
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">POSSO: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Realizar a criação de atividades ao ar livre
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">PARA: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Encontrar praticantes interessados</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve"> Praticante/Instrutor/Lojista
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>POSSO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Gerenciar atividades ao ar livre criadas
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PARA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Administrar atividades criadas
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CRITÉRIO DE ACEITE 1:</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -3472,6 +3484,72 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DADO QUE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Exista uma atividade criada pelo usuário
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QUANDO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Modificar a data da atividade
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ENTÃO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A data é modificada na descrição do evento
+</t>
+    </r>
+    <r>
+      <rPr>
         <u/>
         <sz val="11"/>
         <color theme="1"/>
@@ -3479,51 +3557,61 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">CRITÉRIO DE ACEITE 1:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">DADO QUE: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Tenha a ideia de uma atividade ao ar livre
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">QUANDO: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Cria uma atividade de baixo risco
+      <t>CRITÉRIO DE ACEITE 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DADO QUE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Exista uma atividade criada pelo usuário
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QUANDO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cancelo a atividade criada
 </t>
     </r>
     <r>
@@ -3545,95 +3633,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Cria uma atividade ao ar livre
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CRITÉRIO DE ACEITE 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DADO QUE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Tenha a ideia de uma atividade ao ar livre
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>QUANDO:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Cria uma atividade de alto risco
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ENTÃO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: A atividade é criada e é surgerido a contratação de um instrutor certificado na atividade</t>
+      <t xml:space="preserve"> A atividade é cancelada e o usuário recebe um aviso de que sua atividade foi cancelada</t>
     </r>
   </si>
   <si>
@@ -3646,17 +3646,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PBI:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Gerenciar atividade ao ar livre criada
+      <t>PBI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Buscar atividade ao ar livre na plataforma 
 </t>
     </r>
     <r>
@@ -3678,7 +3678,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Praticante/Instrutor/Lojista
+      <t xml:space="preserve"> Praticante/Instrutor
 </t>
     </r>
     <r>
@@ -3700,7 +3700,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Gerenciar atividades ao ar livre criadas
+      <t xml:space="preserve"> Buscar atividades ao ar livre na plataforma
 </t>
     </r>
     <r>
@@ -3722,7 +3722,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Administrar atividades criadas
+      <t xml:space="preserve"> Encontrar grupos de praticantes
 </t>
     </r>
     <r>
@@ -3766,7 +3766,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Exista uma atividade criada pelo usuário
+      <t xml:space="preserve"> Exista atividades cadastradas do interesse
 </t>
     </r>
     <r>
@@ -3788,7 +3788,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Modificar a data da atividade
+      <t xml:space="preserve"> Busca por atividades ao ar livre
 </t>
     </r>
     <r>
@@ -3810,7 +3810,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> A data é modificada na descrição do evento
+      <t xml:space="preserve"> Obtêm resultados de acordo com a pesquisa
 </t>
     </r>
     <r>
@@ -3854,7 +3854,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Exista uma atividade criada pelo usuário
+      <t xml:space="preserve"> Não exista atividaes cadastradas do interesse
 </t>
     </r>
     <r>
@@ -3876,29 +3876,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Cancelo a atividade criada
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ENTÃO:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> A atividade é cancelada e o usuário receve um aviso de que sua atividade for cancelada</t>
+      <t xml:space="preserve"> Busca por atividades ao ar livre
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ENTÃO: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Não obtém resultados de acordo com a pesquisa</t>
     </r>
   </si>
 </sst>
@@ -4815,6 +4815,207 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4824,244 +5025,43 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5361,7 +5361,7 @@
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+      <selection activeCell="B21" sqref="B21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5387,106 +5387,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="55" t="s">
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="57"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="80"/>
       <c r="V1"/>
     </row>
     <row r="2" spans="1:25" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="60" t="s">
+      <c r="J2" s="84"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="61"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="64" t="s">
+      <c r="N2" s="84"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="66"/>
-      <c r="T2" s="78" t="s">
+      <c r="Q2" s="88"/>
+      <c r="R2" s="89"/>
+      <c r="T2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="79"/>
-      <c r="V2" s="80"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="69"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="81" t="s">
+      <c r="I3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="82"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="81" t="s">
+      <c r="J3" s="48"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="82"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="85" t="s">
+      <c r="N3" s="48"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="86"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="88" t="s">
+      <c r="Q3" s="52"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="88" t="s">
+      <c r="T3" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="90"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="94" t="s">
+      <c r="U3" s="70"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="72" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="69"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="5"/>
       <c r="I4" s="13" t="s">
         <v>14</v>
@@ -5494,10 +5494,10 @@
       <c r="J4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="93"/>
+      <c r="L4" s="57"/>
       <c r="M4" s="13" t="s">
         <v>14</v>
       </c>
@@ -5516,7 +5516,7 @@
       <c r="R4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="89"/>
+      <c r="S4" s="55"/>
       <c r="T4" s="13" t="s">
         <v>14</v>
       </c>
@@ -5526,25 +5526,25 @@
       <c r="V4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="W4" s="95"/>
+      <c r="W4" s="73"/>
     </row>
     <row r="5" spans="1:25" s="4" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="93"/>
+      <c r="B5" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="69"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="7"/>
       <c r="I5" s="15">
         <v>6</v>
       </c>
       <c r="J5" s="16"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="101"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="95"/>
       <c r="M5" s="15">
         <v>2</v>
       </c>
@@ -5570,32 +5570,32 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="67" t="s">
+      <c r="A6" s="93"/>
+      <c r="B6" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="69"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="96">
+      <c r="I6" s="74">
         <f>(I5*J5)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="97"/>
+      <c r="J6" s="75"/>
       <c r="K6" s="27"/>
-      <c r="M6" s="96">
+      <c r="M6" s="74">
         <f>(M5*N5)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="97"/>
-      <c r="P6" s="96">
+      <c r="N6" s="75"/>
+      <c r="P6" s="74">
         <f>(P5*Q5)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="97"/>
+      <c r="Q6" s="75"/>
       <c r="R6" s="24" t="s">
         <v>17</v>
       </c>
@@ -5603,11 +5603,11 @@
         <f>S5</f>
         <v>0</v>
       </c>
-      <c r="T6" s="98">
+      <c r="T6" s="76">
         <f>(T5*U5)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="99"/>
+      <c r="U6" s="77"/>
       <c r="V6" s="25" t="s">
         <v>18</v>
       </c>
@@ -5617,15 +5617,15 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="67" t="s">
+      <c r="A7" s="93"/>
+      <c r="B7" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="69"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="5"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -5642,15 +5642,15 @@
       <c r="V7"/>
     </row>
     <row r="8" spans="1:25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="67" t="s">
+      <c r="A8" s="93"/>
+      <c r="B8" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="69"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
       <c r="H8" s="5"/>
       <c r="I8"/>
       <c r="J8"/>
@@ -5668,66 +5668,66 @@
     </row>
     <row r="9" spans="1:25" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
       <c r="H9" s="5"/>
-      <c r="P9" s="70" t="s">
+      <c r="P9" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="72"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="63"/>
     </row>
     <row r="10" spans="1:25" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="109"/>
       <c r="K10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="43" t="s">
+      <c r="L10" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="P10" s="73" t="s">
+      <c r="M10" s="106"/>
+      <c r="N10" s="106"/>
+      <c r="P10" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="75" t="s">
+      <c r="Q10" s="65"/>
+      <c r="R10" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="S10" s="76"/>
-      <c r="T10" s="77"/>
-      <c r="U10" s="75" t="s">
+      <c r="S10" s="66"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="V10" s="77"/>
-      <c r="W10" s="75" t="s">
+      <c r="V10" s="42"/>
+      <c r="W10" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="X10" s="77"/>
+      <c r="X10" s="42"/>
       <c r="Y10" s="12" t="s">
         <v>28</v>
       </c>
@@ -5736,35 +5736,35 @@
       <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="34"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101"/>
       <c r="K11" s="28">
         <v>1</v>
       </c>
-      <c r="L11" s="48"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="50"/>
-      <c r="P11" s="102" t="str">
+      <c r="L11" s="96"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="98"/>
+      <c r="P11" s="32" t="str">
         <f>B4</f>
         <v>Brunno Tatsuo Noda Bandeira da Cruz</v>
       </c>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="107"/>
-      <c r="S11" s="108"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="110"/>
-      <c r="V11" s="111"/>
-      <c r="W11" s="112"/>
-      <c r="X11" s="113"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="40"/>
       <c r="Y11" s="11">
         <f>$W$6 * W11</f>
         <v>0</v>
@@ -5774,35 +5774,35 @@
       <c r="A12" s="1">
         <v>2</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="41"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="103"/>
       <c r="K12" s="29">
         <v>1</v>
       </c>
-      <c r="L12" s="48"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="50"/>
-      <c r="P12" s="102" t="str">
+      <c r="L12" s="96"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="98"/>
+      <c r="P12" s="32" t="str">
         <f>B5</f>
         <v>Gabriel Felipe Jess Meira</v>
       </c>
-      <c r="Q12" s="103"/>
-      <c r="R12" s="107"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="109"/>
-      <c r="U12" s="110"/>
-      <c r="V12" s="111"/>
-      <c r="W12" s="112"/>
-      <c r="X12" s="113"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="38"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="40"/>
       <c r="Y12" s="11">
         <f>$W$6 * W12</f>
         <v>0</v>
@@ -5812,35 +5812,35 @@
       <c r="A13" s="1">
         <v>3</v>
       </c>
-      <c r="B13" s="114" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="41"/>
+      <c r="B13" s="104" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="103"/>
       <c r="K13" s="29">
         <v>1</v>
       </c>
-      <c r="L13" s="48"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="50"/>
-      <c r="P13" s="102" t="str">
+      <c r="L13" s="96"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="98"/>
+      <c r="P13" s="32" t="str">
         <f>B6</f>
         <v>Sidnei Henrique Reis dos Santos</v>
       </c>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="107"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="109"/>
-      <c r="U13" s="110"/>
-      <c r="V13" s="111"/>
-      <c r="W13" s="112"/>
-      <c r="X13" s="113"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="40"/>
       <c r="Y13" s="11">
         <f>$W$6 * W13</f>
         <v>0</v>
@@ -5850,35 +5850,35 @@
       <c r="A14" s="1">
         <v>4</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="101"/>
       <c r="K14" s="29">
         <v>1</v>
       </c>
-      <c r="L14" s="48"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="50"/>
-      <c r="P14" s="102" t="str">
+      <c r="L14" s="96"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="98"/>
+      <c r="P14" s="32" t="str">
         <f>B7</f>
         <v>Thales Yahya</v>
       </c>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="107"/>
-      <c r="S14" s="108"/>
-      <c r="T14" s="109"/>
-      <c r="U14" s="110"/>
-      <c r="V14" s="111"/>
-      <c r="W14" s="112"/>
-      <c r="X14" s="113"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="38"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="40"/>
       <c r="Y14" s="11">
         <f>$W$6 * W14</f>
         <v>0</v>
@@ -5888,35 +5888,35 @@
       <c r="A15" s="1">
         <v>5</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="34"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="101"/>
       <c r="K15" s="29">
         <v>1</v>
       </c>
-      <c r="L15" s="48"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="50"/>
-      <c r="P15" s="102" t="str">
+      <c r="L15" s="96"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="98"/>
+      <c r="P15" s="32" t="str">
         <f>B8</f>
         <v>Tiago Vieira Paulin</v>
       </c>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="104"/>
-      <c r="S15" s="104"/>
-      <c r="T15" s="104"/>
-      <c r="U15" s="105"/>
-      <c r="V15" s="105"/>
-      <c r="W15" s="106"/>
-      <c r="X15" s="106"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
       <c r="Y15" s="11">
         <f>$W$6 * W15</f>
         <v>0</v>
@@ -5926,45 +5926,45 @@
       <c r="A16" s="1">
         <v>6</v>
       </c>
-      <c r="B16" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="37"/>
+      <c r="B16" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="114"/>
       <c r="K16" s="29">
         <v>1</v>
       </c>
-      <c r="L16" s="48"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="50"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="98"/>
     </row>
     <row r="17" spans="1:22" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>7</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="114"/>
       <c r="K17" s="29">
         <v>1</v>
       </c>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
@@ -5978,23 +5978,23 @@
       <c r="A18" s="1">
         <v>8</v>
       </c>
-      <c r="B18" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39"/>
+      <c r="B18" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="112"/>
       <c r="K18" s="29">
         <v>2</v>
       </c>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="8"/>
@@ -6003,23 +6003,23 @@
       <c r="A19" s="1">
         <v>9</v>
       </c>
-      <c r="B19" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="39"/>
+      <c r="B19" s="110" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="112"/>
       <c r="K19" s="29">
         <v>2</v>
       </c>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
@@ -6028,93 +6028,67 @@
       <c r="A20" s="1">
         <v>10</v>
       </c>
-      <c r="B20" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
+      <c r="B20" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="112"/>
       <c r="K20" s="29">
         <v>2</v>
       </c>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
     </row>
     <row r="21" spans="1:22" ht="251.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>11</v>
       </c>
-      <c r="B21" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39"/>
+      <c r="B21" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="112"/>
       <c r="K21" s="29">
         <v>2</v>
       </c>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
     </row>
     <row r="22" spans="1:22" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:22" ht="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="P9:Y9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L13:N13"/>
     <mergeCell ref="L19:N19"/>
     <mergeCell ref="L20:N20"/>
     <mergeCell ref="L21:N21"/>
@@ -6131,23 +6105,49 @@
     <mergeCell ref="L16:N16"/>
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="L18:N18"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P9:Y9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
